--- a/açılış.xlsx
+++ b/açılış.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\AI_Trade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42573C1-BAE5-48B2-BB61-4485001D58A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7C2C2A-5C28-484E-AF00-7F2AA1633B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>DERHL</t>
+  </si>
+  <si>
+    <t>SUWEN</t>
   </si>
 </sst>
 </file>
@@ -387,6 +390,9 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -397,9 +403,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -535,10 +538,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$2:$M$15</c:f>
+              <c:f>Sheet1!$M$2:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -580,6 +583,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>12.641929557486693</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.061929557486692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -625,10 +631,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$15</c:f>
+              <c:f>Sheet1!$N$2:$N$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -670,6 +676,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.2698475504131164</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.53989366633072677</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1752,10 +1761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA40"/>
+  <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1822,11 +1831,11 @@
       <c r="G2" s="3">
         <v>39.68</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="15">
         <f>AVERAGE(B2:B4)</f>
         <v>5.3000989364780233</v>
       </c>
-      <c r="J2" s="15"/>
+      <c r="J2" s="16"/>
       <c r="M2" s="9">
         <v>0</v>
       </c>
@@ -1862,8 +1871,8 @@
       <c r="G3" s="3">
         <v>27.3</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
       <c r="M3" s="10">
         <f>SUM($I$2:I2)</f>
         <v>5.3000989364780233</v>
@@ -1902,8 +1911,8 @@
       <c r="G4" s="3">
         <v>299</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
       <c r="M4" s="10">
         <f>SUM($I$2:I7)</f>
         <v>4.6265889804577753</v>
@@ -1944,11 +1953,11 @@
       <c r="G5" s="3">
         <v>2.8</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="17">
         <f t="shared" ref="I5" si="2">AVERAGE(B5:B7)</f>
         <v>-0.67350995602024755</v>
       </c>
-      <c r="J5" s="17"/>
+      <c r="J5" s="18"/>
       <c r="M5" s="10">
         <f>SUM($I$2:I10)</f>
         <v>5.7492941838094387</v>
@@ -1987,8 +1996,8 @@
       <c r="G6" s="3">
         <v>6.03</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
       <c r="M6" s="10">
         <f>SUM($I$2:I13)</f>
         <v>5.7807614434097969</v>
@@ -2027,8 +2036,8 @@
       <c r="G7" s="3">
         <v>17.09</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
       <c r="M7" s="10">
         <f>SUM($I$2:I16)</f>
         <v>5.3503187128337206</v>
@@ -2069,11 +2078,11 @@
       <c r="G8" s="3">
         <v>140.80000000000001</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="15">
         <f t="shared" ref="I8" si="3">AVERAGE(B8:B10)</f>
         <v>1.1227052033516636</v>
       </c>
-      <c r="J8" s="15"/>
+      <c r="J8" s="16"/>
       <c r="M8" s="10">
         <f>SUM($I$2:I19)</f>
         <v>6.3612271239150635</v>
@@ -2112,8 +2121,8 @@
       <c r="G9" s="3">
         <v>41.82</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
       <c r="M9" s="10">
         <f>SUM($I$2:I22)</f>
         <v>8.6730828963030042</v>
@@ -2152,8 +2161,8 @@
       <c r="G10" s="3">
         <v>62.5</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
       <c r="M10" s="10">
         <f>SUM($I$2:I25)</f>
         <v>11.178849338997544</v>
@@ -2194,11 +2203,11 @@
       <c r="G11" s="3">
         <v>3.75</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="15">
         <f t="shared" ref="I11" si="4">AVERAGE(B11:B13)</f>
         <v>3.1467259600358087E-2</v>
       </c>
-      <c r="J11" s="15"/>
+      <c r="J11" s="16"/>
       <c r="M11" s="10">
         <f>SUM($I$2:I28)</f>
         <v>10.898721009252364</v>
@@ -2237,8 +2246,8 @@
       <c r="G12" s="3">
         <v>11.2</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
       <c r="M12" s="10">
         <f>SUM($I$2:I31)</f>
         <v>13.920201859514119</v>
@@ -2277,8 +2286,8 @@
       <c r="G13" s="3">
         <v>19</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
       <c r="M13" s="10">
         <f>SUM($I$2:I34)</f>
         <v>15.248596224153358</v>
@@ -2319,11 +2328,11 @@
       <c r="G14" s="3">
         <v>37.76</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="17">
         <f t="shared" ref="I14" si="5">AVERAGE(B14:B16)</f>
         <v>-0.43044273057607657</v>
       </c>
-      <c r="J14" s="17"/>
+      <c r="J14" s="18"/>
       <c r="M14" s="10">
         <f>SUM($I$2:I37)</f>
         <v>13.445262890820025</v>
@@ -2362,10 +2371,10 @@
       <c r="G15" s="3">
         <v>172.6</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
       <c r="M15" s="10">
-        <f>SUM($I$2:I38)</f>
+        <f>SUM($I$2:I40)</f>
         <v>12.641929557486693</v>
       </c>
       <c r="N15" s="5">
@@ -2376,7 +2385,7 @@
         <v>10767.85</v>
       </c>
       <c r="U15" s="5">
-        <f>100*((U16/T15)-1)</f>
+        <f>100*((T16/T15)-1)</f>
         <v>-0.81604034231532729</v>
       </c>
       <c r="Z15" s="3"/>
@@ -2402,10 +2411,22 @@
       <c r="G16" s="3">
         <v>36.06</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="U16">
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="M16" s="10">
+        <f>SUM($I$2:I43)</f>
+        <v>11.061929557486692</v>
+      </c>
+      <c r="N16" s="5">
+        <f>SUM($U$2:U16)</f>
+        <v>-0.53989366633072677</v>
+      </c>
+      <c r="T16">
         <v>10679.98</v>
+      </c>
+      <c r="U16" s="5">
+        <f>100*((T17/T16)-1)</f>
+        <v>-1.8097412167438431</v>
       </c>
       <c r="AA16" s="3"/>
     </row>
@@ -2432,11 +2453,14 @@
       <c r="G17" s="3">
         <v>67</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="15">
         <f t="shared" ref="I17" si="6">AVERAGE(B17:B19)</f>
         <v>1.0109084110813429</v>
       </c>
-      <c r="J17" s="15"/>
+      <c r="J17" s="16"/>
+      <c r="T17">
+        <v>10486.7</v>
+      </c>
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -2460,8 +2484,8 @@
       <c r="G18" s="3">
         <v>20.5</v>
       </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -2485,8 +2509,8 @@
       <c r="G19" s="3">
         <v>13.05</v>
       </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
       <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -2512,11 +2536,11 @@
       <c r="G20" s="3">
         <v>67.45</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="15">
         <f t="shared" ref="I20" si="7">AVERAGE(B20:B22)</f>
         <v>2.3118557723879403</v>
       </c>
-      <c r="J20" s="15"/>
+      <c r="J20" s="16"/>
       <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -2540,8 +2564,8 @@
       <c r="G21" s="3">
         <v>60.1</v>
       </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
       <c r="AA21" s="3"/>
     </row>
     <row r="22" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -2565,8 +2589,8 @@
       <c r="G22" s="3">
         <v>73.95</v>
       </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
       <c r="AA22" s="3"/>
     </row>
     <row r="23" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -2592,11 +2616,11 @@
       <c r="G23" s="3">
         <v>16.41</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="15">
         <f t="shared" ref="I23" si="8">AVERAGE(B23:B25)</f>
         <v>2.505766442694541</v>
       </c>
-      <c r="J23" s="15"/>
+      <c r="J23" s="16"/>
       <c r="AA23" s="3"/>
     </row>
     <row r="24" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -2620,8 +2644,8 @@
       <c r="G24" s="3">
         <v>132.1</v>
       </c>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
       <c r="AA24" s="3"/>
     </row>
     <row r="25" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -2645,8 +2669,8 @@
       <c r="G25" s="3">
         <v>35.58</v>
       </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
       <c r="AA25" s="3"/>
     </row>
     <row r="26" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -2672,11 +2696,11 @@
       <c r="G26" s="3">
         <v>40.880000000000003</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="17">
         <f t="shared" ref="I26" si="9">AVERAGE(B26:B28)</f>
         <v>-0.28012832974518015</v>
       </c>
-      <c r="J26" s="17"/>
+      <c r="J26" s="18"/>
       <c r="AA26" s="3"/>
     </row>
     <row r="27" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -2700,8 +2724,8 @@
       <c r="G27" s="3">
         <v>21.42</v>
       </c>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
       <c r="AA27" s="3"/>
     </row>
     <row r="28" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -2725,8 +2749,8 @@
       <c r="G28" s="3">
         <v>332</v>
       </c>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
       <c r="AA28" s="3"/>
     </row>
     <row r="29" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -2752,11 +2776,11 @@
       <c r="G29" s="3">
         <v>542.5</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="15">
         <f t="shared" ref="I29" si="10">AVERAGE(B29:B31)</f>
         <v>3.0214808502617547</v>
       </c>
-      <c r="J29" s="15"/>
+      <c r="J29" s="16"/>
       <c r="AA29" s="3"/>
     </row>
     <row r="30" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -2780,8 +2804,8 @@
       <c r="G30" s="3">
         <v>38.36</v>
       </c>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
       <c r="AA30" s="3"/>
     </row>
     <row r="31" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -2805,8 +2829,8 @@
       <c r="G31" s="3">
         <v>175.4</v>
       </c>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
       <c r="AA31" s="3"/>
     </row>
     <row r="32" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -2832,11 +2856,11 @@
       <c r="G32" s="3">
         <v>263</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="15">
         <f t="shared" ref="I32" si="11">AVERAGE(B32:B34)</f>
         <v>1.3283943646392398</v>
       </c>
-      <c r="J32" s="15"/>
+      <c r="J32" s="16"/>
       <c r="AA32" s="3"/>
     </row>
     <row r="33" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -2860,8 +2884,8 @@
       <c r="G33" s="3">
         <v>334.25</v>
       </c>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
       <c r="AA33" s="3"/>
     </row>
     <row r="34" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -2885,8 +2909,8 @@
       <c r="G34" s="3">
         <v>41.56</v>
       </c>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
       <c r="AA34" s="3"/>
     </row>
     <row r="35" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -2912,11 +2936,11 @@
       <c r="G35" s="3">
         <v>8400</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="14">
         <f>AVERAGE(B35:B37)</f>
         <v>-1.803333333333333</v>
       </c>
-      <c r="J35" s="18"/>
+      <c r="J35" s="14"/>
       <c r="AA35" s="3"/>
     </row>
     <row r="36" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -2940,8 +2964,8 @@
       <c r="G36" s="3">
         <v>18.52</v>
       </c>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
       <c r="AA36" s="3"/>
     </row>
     <row r="37" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -2965,13 +2989,13 @@
       <c r="G37" s="3">
         <v>10.6</v>
       </c>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
       <c r="AA37" s="3"/>
     </row>
     <row r="38" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
-        <v>45465</v>
+        <v>45467</v>
       </c>
       <c r="B38" s="8">
         <v>-1.45</v>
@@ -2985,11 +3009,11 @@
       <c r="E38" s="4">
         <v>45468</v>
       </c>
-      <c r="I38" s="18">
+      <c r="I38" s="14">
         <f>AVERAGE(B38:B40)</f>
         <v>-0.80333333333333334</v>
       </c>
-      <c r="J38" s="18"/>
+      <c r="J38" s="14"/>
     </row>
     <row r="39" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" s="12"/>
@@ -3005,8 +3029,8 @@
       <c r="E39" s="4">
         <v>45468</v>
       </c>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
     </row>
     <row r="40" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" s="13"/>
@@ -3022,11 +3046,79 @@
       <c r="E40" s="4">
         <v>45468</v>
       </c>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+    </row>
+    <row r="41" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="11">
+        <v>45468</v>
+      </c>
+      <c r="B41" s="8">
+        <v>-1.78</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="4">
+        <v>45469</v>
+      </c>
+      <c r="E41" s="4">
+        <v>45469</v>
+      </c>
+      <c r="I41" s="14">
+        <f>AVERAGE(B41:B43)</f>
+        <v>-1.58</v>
+      </c>
+      <c r="J41" s="14"/>
+    </row>
+    <row r="42" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A42" s="12"/>
+      <c r="B42" s="8">
+        <v>-1.82</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="4">
+        <v>45469</v>
+      </c>
+      <c r="E42" s="4">
+        <v>45469</v>
+      </c>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="13"/>
+      <c r="B43" s="8">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="4">
+        <v>45469</v>
+      </c>
+      <c r="E43" s="4">
+        <v>45469</v>
+      </c>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="28">
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="I41:J43"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="I2:J4"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="I8:J10"/>
+    <mergeCell ref="I11:J13"/>
+    <mergeCell ref="I14:J16"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="I38:J40"/>
     <mergeCell ref="I35:J37"/>
@@ -3036,17 +3128,7 @@
     <mergeCell ref="I26:J28"/>
     <mergeCell ref="I29:J31"/>
     <mergeCell ref="I32:J34"/>
-    <mergeCell ref="I2:J4"/>
-    <mergeCell ref="I5:J7"/>
-    <mergeCell ref="I8:J10"/>
-    <mergeCell ref="I11:J13"/>
-    <mergeCell ref="I14:J16"/>
     <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
